--- a/biology/Zoologie/Penthetria_lugens/Penthetria_lugens.xlsx
+++ b/biology/Zoologie/Penthetria_lugens/Penthetria_lugens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plecia lugens, Protomyia lugens
 Penthetria lugens est une espèce fossile d'insectes diptères de la famille des Bibionidae dites aussi « mouches de Saint-Marc » ou « mouches noires ».
@@ -514,20 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description initiale
-En 1870, l'espèce Protomyia lugens est décrite par l'entomologiste français Émile Oustalet (1844-1905)[1],[2].
-Renommage
-En 1937 le paléontologue français Nicolas Théobald (1903-1981) ajoute des échantillons et renomme Protomyia lugens en Plecia lugens [3].
-En 1994 l'entomologiste américain Neal Luit Evenhuis (1952-) renomme l'espèce Plecia lugens (ou Protomyia lugens) en Penthetria lugens[4].
-Citations
-En 2017 John Skartveit et André Nel confirment Penthetria lugens[5],[2]. 
-En 2021 John Skartveit et Sonja Wedmann citent Penthetria lugens[6],[2].
-Fossiles
-Selon Paleobiology Database en 2023, six collections de l'Oligocène d'une seule occurrence chacune sont référencées dont une en Allemagne et cinq en France, 
-La première collection holotype du Rupélien de 1870 vient de Corent dans le Puy-de-Dôme en Auvergne et l'holotype est conservée au muséum national d'histoire naturelle de Paris[7],[2].
-La collection d'Allemagne vient de Kleinkembs, de la collection Mieg (échant. R1008, 872, 1015, 513 + 504, 585 (?), 634 (?),834 (?) conservée au muséum d'histoire naturelle de Bâle, et est décrite par Nicolas Théobald en 1937, ainsi que les échantillons de la collection de l'institut géologique de Lyon et de l'institut géologique de Montpellier venant du gypse d'Aix-en-Provence dans les Bouches-du-Rhône. Les échantillons de la collection Goret, venant de Céreste dans les Alpes-de-Haute-Provence, sont conservés au MNHNP[3],[2].
-Étymologie
-L'épithète spécifique reprend le latin lugens, « deuil ».
+          <t>Description initiale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1870, l'espèce Protomyia lugens est décrite par l'entomologiste français Émile Oustalet (1844-1905),.
 </t>
         </is>
       </c>
@@ -553,18 +558,246 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1937 le paléontologue français Nicolas Théobald (1903-1981) ajoute des échantillons et renomme Protomyia lugens en Plecia lugens .
+En 1994 l'entomologiste américain Neal Luit Evenhuis (1952-) renomme l'espèce Plecia lugens (ou Protomyia lugens) en Penthetria lugens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Penthetria_lugens</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_lugens</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017 John Skartveit et André Nel confirment Penthetria lugens,. 
+En 2021 John Skartveit et Sonja Wedmann citent Penthetria lugens,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Penthetria_lugens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_lugens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, six collections de l'Oligocène d'une seule occurrence chacune sont référencées dont une en Allemagne et cinq en France, 
+La première collection holotype du Rupélien de 1870 vient de Corent dans le Puy-de-Dôme en Auvergne et l'holotype est conservée au muséum national d'histoire naturelle de Paris,.
+La collection d'Allemagne vient de Kleinkembs, de la collection Mieg (échant. R1008, 872, 1015, 513 + 504, 585 (?), 634 (?),834 (?) conservée au muséum d'histoire naturelle de Bâle, et est décrite par Nicolas Théobald en 1937, ainsi que les échantillons de la collection de l'institut géologique de Lyon et de l'institut géologique de Montpellier venant du gypse d'Aix-en-Provence dans les Bouches-du-Rhône. Les échantillons de la collection Goret, venant de Céreste dans les Alpes-de-Haute-Provence, sont conservés au MNHNP,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Penthetria_lugens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_lugens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique reprend le latin lugens, « deuil ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Penthetria_lugens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_lugens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[3],[note 1] : 
-« Tête et thorax noirs, abdomen brun, ailes jaunâtres. Tête arrondie, deux gros yeux sur les côtés, antenne cordiforme, neuf articles courts, visibles sur R1008. Thorax de forme ovale, plus large que la tête, dépression en « U » bien marquée. Abdomen de forme ovale, allongé, plus large que le thorax, segments finement velus, le dernier porte deux appendices génitaux. Pattes assez bien conservées, velues, tibias II et III avec un éperon apical. Balanciers avec tige longue, massue sphérique. Ailes dépassant longuement l'abdomen, nervation de Plecia, bifurcation de Rs bien visible. »[3].
-Dimensions
-La longueur du corps est de 9,75 mm ; la longueur de la tête est de 1 mm et la largeur est de 9,75 mm ; la longueur du thorax est de 2,25 mm et la largeur est de 1,75 mm ; la longueur de l'abdomen est de 6,5 mm et la largeur est de 2,25 mm ; l'aile a une longueur de 9 mm[3].
-Affinités
-« Cette espèce est représentée par sept échantillons. Elle semble identique à P. lugens Oustalet de Corent. »[3].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Tête et thorax noirs, abdomen brun, ailes jaunâtres. Tête arrondie, deux gros yeux sur les côtés, antenne cordiforme, neuf articles courts, visibles sur R1008. Thorax de forme ovale, plus large que la tête, dépression en « U » bien marquée. Abdomen de forme ovale, allongé, plus large que le thorax, segments finement velus, le dernier porte deux appendices génitaux. Pattes assez bien conservées, velues, tibias II et III avec un éperon apical. Balanciers avec tige longue, massue sphérique. Ailes dépassant longuement l'abdomen, nervation de Plecia, bifurcation de Rs bien visible. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Penthetria_lugens</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_lugens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur du corps est de 9,75 mm ; la longueur de la tête est de 1 mm et la largeur est de 9,75 mm ; la longueur du thorax est de 2,25 mm et la largeur est de 1,75 mm ; la longueur de l'abdomen est de 6,5 mm et la largeur est de 2,25 mm ; l'aile a une longueur de 9 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Penthetria_lugens</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_lugens</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Cette espèce est représentée par sept échantillons. Elle semble identique à P. lugens Oustalet de Corent. ».
 </t>
         </is>
       </c>
